--- a/Experiment_Resulsts/Bank_Classification_MCES_Results.xlsx
+++ b/Experiment_Resulsts/Bank_Classification_MCES_Results.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\htet_mces_bank_data\Experiment_Resulsts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8A0E64-3E70-4F37-90B7-245ADCCD695C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96065D1-2D74-4D11-B49D-8B73BDA02B74}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B62BAE52-822E-4D82-A634-01F6BC18BF4F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{B62BAE52-822E-4D82-A634-01F6BC18BF4F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Single_CV_Group_MCES" sheetId="1" r:id="rId1"/>
+    <sheet name="Multiple_CV_Group_MCES" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t>NINMAR</t>
   </si>
@@ -79,6 +80,9 @@
   </si>
   <si>
     <t>R</t>
+  </si>
+  <si>
+    <t>OLAQLY</t>
   </si>
 </sst>
 </file>
@@ -189,6 +193,61 @@
         <a:xfrm>
           <a:off x="26894" y="2158702"/>
           <a:ext cx="8642453" cy="3437069"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>8081</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{049574F8-9831-47A4-A9BE-CEC31B21F221}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="2926080"/>
+          <a:ext cx="10058400" cy="4214321"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -499,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78B6E3CA-07E3-4155-BBC8-19FA46A27AD4}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -763,4 +822,274 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7207B30-9DAA-417F-B904-31F505B458F5}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.455600462652472</v>
+      </c>
+      <c r="C2">
+        <v>2.4886473429951699</v>
+      </c>
+      <c r="D2">
+        <v>7.62423498114191E-2</v>
+      </c>
+      <c r="E2">
+        <v>78.703703703703695</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.40349629635296902</v>
+      </c>
+      <c r="C3">
+        <v>2.8172302737520099</v>
+      </c>
+      <c r="D3">
+        <v>0.25154659849737199</v>
+      </c>
+      <c r="E3">
+        <v>83.204508856682807</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>0.39884961169792899</v>
+      </c>
+      <c r="C4">
+        <v>3.2614331723027399</v>
+      </c>
+      <c r="D4">
+        <v>0.27108834667100101</v>
+      </c>
+      <c r="E4">
+        <v>83.454106280193201</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>0.398914958904591</v>
+      </c>
+      <c r="C5">
+        <v>4.2914653784218997</v>
+      </c>
+      <c r="D5">
+        <v>0.277993413296374</v>
+      </c>
+      <c r="E5">
+        <v>83.454106280193201</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>0.38893568975748199</v>
+      </c>
+      <c r="C6">
+        <v>6.0942028985507299</v>
+      </c>
+      <c r="D6">
+        <v>0.333262853139555</v>
+      </c>
+      <c r="E6">
+        <v>84.363929146537799</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0.38799428964951499</v>
+      </c>
+      <c r="C7">
+        <v>6.6459742351046698</v>
+      </c>
+      <c r="D7">
+        <v>0.34049584489748103</v>
+      </c>
+      <c r="E7" s="1">
+        <v>84.468599033816403</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>0.38840505105704398</v>
+      </c>
+      <c r="C8">
+        <v>6.6741545893719803</v>
+      </c>
+      <c r="D8">
+        <v>0.33827362555566898</v>
+      </c>
+      <c r="E8">
+        <v>84.428341384863103</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>0.38763237262438599</v>
+      </c>
+      <c r="C9">
+        <v>7.2752818035426703</v>
+      </c>
+      <c r="D9">
+        <v>0.342277530904956</v>
+      </c>
+      <c r="E9">
+        <v>84.412238325281805</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>0.392520146755924</v>
+      </c>
+      <c r="C10">
+        <v>8.4960547504025801</v>
+      </c>
+      <c r="D10">
+        <v>0.32185311532732802</v>
+      </c>
+      <c r="E10">
+        <v>84.041867954911396</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.39743323446725098</v>
+      </c>
+      <c r="C11">
+        <v>8.9121578099838992</v>
+      </c>
+      <c r="D11">
+        <v>0.29836523290758599</v>
+      </c>
+      <c r="E11">
+        <v>83.5909822866344</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>